--- a/CharacterTable.xlsx
+++ b/CharacterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S_ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC60876-91F2-49E3-99BF-6B1B2777FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40519C-18CA-4D0A-BB98-A8660AC666F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="4215" windowWidth="19800" windowHeight="15435" xr2:uid="{2514615A-5E9A-47BD-AF32-4D53C78FA135}"/>
+    <workbookView xWindow="4440" yWindow="2730" windowWidth="16140" windowHeight="15435" xr2:uid="{2514615A-5E9A-47BD-AF32-4D53C78FA135}"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>index</t>
   </si>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>illustFileName</t>
+  </si>
+  <si>
+    <t>Skunk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -411,7 +419,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -434,22 +442,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>12010000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>12020000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>